--- a/data/trans_bre/Predimed_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Predimed_R2-Edad-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.43511013335728</v>
+        <v>-13.77777355345753</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.1405576826927847</v>
+        <v>-0.1451939364116517</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2968713857771955</v>
+        <v>0.09280781529116214</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.002689169670198268</v>
+        <v>0.0008017625103207925</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>0.3461993921873185</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.004126216385025148</v>
+        <v>0.004126216385025149</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.281007733503513</v>
+        <v>-5.294603706938698</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.06062372390062991</v>
+        <v>-0.0607502181923617</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.576564512227906</v>
+        <v>6.601501169345761</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.08318393662567378</v>
+        <v>0.08332477132400401</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.005970162817554</v>
+        <v>-3.245818702404076</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.04677646702813514</v>
+        <v>-0.03818321079143135</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.785486048275065</v>
+        <v>5.140102175100679</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.06079845893153364</v>
+        <v>0.06510068456771881</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-3.212513574433296</v>
+        <v>-3.212513574433284</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.03897337305135685</v>
+        <v>-0.03897337305135673</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.29226798687913</v>
+        <v>-6.897633412559284</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.08590857447415197</v>
+        <v>-0.08177836310383249</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7304329557392645</v>
+        <v>0.789019404767787</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.008871010811613723</v>
+        <v>0.009737626989060538</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-0.575032763726091</v>
+        <v>-0.5750327637260799</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-0.007118760707574056</v>
+        <v>-0.00711876070757392</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.57645402912359</v>
+        <v>-4.465977663214037</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.0550783220141208</v>
+        <v>-0.05347218624776045</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.643898102177642</v>
+        <v>3.489778821261285</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.04682751972434571</v>
+        <v>0.04490725688388111</v>
       </c>
     </row>
     <row r="19">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.03189348195927</v>
+        <v>-3.997818606354612</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.05289096667574364</v>
+        <v>-0.05152431266805228</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.209869884050223</v>
+        <v>5.478358685790754</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.08818675059444081</v>
+        <v>0.07759606427166876</v>
       </c>
     </row>
     <row r="22">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.8750940220272119</v>
+        <v>0.8750940220271897</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.01072622987283602</v>
+        <v>0.01072622987283575</v>
       </c>
     </row>
     <row r="23">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.574972714705186</v>
+        <v>-3.918735661080999</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.05316231623091684</v>
+        <v>-0.04591318909593812</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.893653195809579</v>
+        <v>5.648322316112833</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.07596911878726866</v>
+        <v>0.07245735944170903</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>-1.293834256495019</v>
+        <v>-1.293834256495041</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.0157057785189728</v>
+        <v>-0.01570577851897306</v>
       </c>
     </row>
     <row r="26">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-3.217176485056857</v>
+        <v>-3.303756664424155</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.03851173349949046</v>
+        <v>-0.03975970820342617</v>
       </c>
     </row>
     <row r="27">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6253634411339126</v>
+        <v>0.4114633293175095</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.007703136049659003</v>
+        <v>0.004921857353856877</v>
       </c>
     </row>
     <row r="28">
